--- a/biology/Botanique/Mégaherbe/Mégaherbe.xlsx
+++ b/biology/Botanique/Mégaherbe/Mégaherbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9gaherbe</t>
+          <t>Mégaherbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mégaherbes[1] sont un groupe de plantes herbacées pérennes poussant dans les îles sub-antarctiques de Nouvelle-Zélande. Elles sont caractérisées par leur grande taille, avec des feuilles énormes et de très grandes fleurs souvent colorées, et se sont adaptées aux rudes conditions climatiques des îles. Le bétail introduit dans les îles au XIXe siècle a fortement réduit la population de mégaherbes, à tel point qu'au XXe siècle les mégaherbes étaient menacées d'extinction. Depuis le  retrait du bétail en 1993, les mégaherbes se sont régénérées avec succès et de manière spectaculaire. Elles ont été décrites comme « l'expérience botanique exceptionnelle de la Nouvelle-Zélande ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mégaherbes sont un groupe de plantes herbacées pérennes poussant dans les îles sub-antarctiques de Nouvelle-Zélande. Elles sont caractérisées par leur grande taille, avec des feuilles énormes et de très grandes fleurs souvent colorées, et se sont adaptées aux rudes conditions climatiques des îles. Le bétail introduit dans les îles au XIXe siècle a fortement réduit la population de mégaherbes, à tel point qu'au XXe siècle les mégaherbes étaient menacées d'extinction. Depuis le  retrait du bétail en 1993, les mégaherbes se sont régénérées avec succès et de manière spectaculaire. Elles ont été décrites comme « l'expérience botanique exceptionnelle de la Nouvelle-Zélande ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9gaherbe</t>
+          <t>Mégaherbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Distribution et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mégaherbes se rencontrent dans beaucoup des îles subantarctiques de Nouvelle-Zélande, surtout dans l'archipel des Snares, des îles Auckland, et celui de l'île Campbell. Là, ces plantes extraordinaires évoluèrent en réponse aux conditions climatiques et pédologiques et à l'absence d'herbivores dans les îles. Le temps est généralement pluvieux, froid et extrêmement venteux ; le sol, tourbeux, acide et pauvre. La couverture nuageuse quasi-continuelle fait que les îles connaissent de faibles niveaux d'ensoleillement.
 Le terme megaherb fut d'abord utilisé par Sir James Clark Ross durant son expédition en Antarctique 1839 – 1843.  Sir Joseph Hooker, le botaniste de l'expédition, relata que les « mégaherbes produisent une floraison sans pareille en dehors des tropiques ». Bien que petites en comparaison des plantes tropicales, les mégaherbes sont remarquables du fait que leur taille est bien plus importante que celle des autres herbacées vivaces que l'on trouve dans ces îles : généralement les conditions météorologiques et pédologiques que connaissent les plantes dans ce milieu, ont un effet rabougrissant.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9gaherbe</t>
+          <t>Mégaherbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Espèces de mégaherbes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des mégaherbes fleurissent en masse environ tous les trois ans ; Les années « sans » quelques plantes fleurissent mais c'est loin de l'effet créé par la floraison de masse. Un visiteur en décembre 1996 (Derek Fell) décrivit une prairie fleurie sur l'île Campbell en ces termes : « Nous n'en croyions pas nos yeux ... un formidable tapis de fleurs s'étendait aussi loin que portait notre regard ». Les plantes suivantes figurent parmi les espèces prédominantes chez les mégaherbes.
 Un composant majeur de la communauté de mégaherbe est Bulbinella rossii (Ross Lily).  Cette plante forme une touffe de feuilles succulentes et linéaires, mesurant 60 cm. Les épis floraux jaune brillant atteignent plus de 90 cm  en hauteur. L'espèce la plus proche se trouve être le Bulbinella hookeri  (Maori Lily) de la Nouvelle-Zélande métropolitaine, et Bulbinella floribunda (Yellow Cat-tail) d'Afrique du Sud.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9gaherbe</t>
+          <t>Mégaherbe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Plantes compagnes de la communauté de mégaherbes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe d'autre plantes poussant au côté des mégaherbes, tel les hebe, des marguerites, des Cyperaceae, et trois espèces de gentianes : Gentianella cerina (giant gentian), atteignant jusqu'à 15 cm de haut avec des fleurs de 2,5 cm de diamètre, variant en couleur du blanc au rouge et au pourpre en passant par le rose pâle; Gentianella antarctica et Gentianella cocinna, ont toutes deux des fleurs rouge rosé.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9gaherbe</t>
+          <t>Mégaherbe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Menaces pour les mégaherbes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les îles sub-antarctiques de Nouvelle-Zélande sont inhabitées (si l'on exclut l'équipe de recherche scientifique de la station météorologique sur l'île Campbell). Au XIXe siècle, des lapins, des cochons, des moutons, des chèvres, et des vaches ont été introduits. Ceci fut entrepris pour fournir un soutien pour tout rescapé dont le navire aurait fait naufrage dans ce secteur des quarantièmes rugissants et des cinquantièmes hurlants.
 Les populations d'animaux retournés à l'état sauvage ont augmenté à tel point que leur surbroutage menaçait sérieusement les mégaherbes. Une action fut menée en 1987 par le service de conservation de la Nouvelle-Zélande pour retirer toutes les espèces introduites. Cette action s'est achevée en 1993. La rapidité et l'importance de la régénération observée en 1996, seulement trois ans plus tard, étonna les botanistes de passage.
